--- a/data/134/DEUSTATIS/Local units - construction_historical.xlsx
+++ b/data/134/DEUSTATIS/Local units - construction_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AGG3"/>
+  <dimension ref="A1:AGS3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4687,6 +4687,66 @@
           <t>2021-12</t>
         </is>
       </c>
+      <c r="AGH1" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="AGI1" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="AGJ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="AGK1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="AGL1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="AGM1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="AGN1" s="1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="AGO1" s="1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="AGP1" s="1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="AGQ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="AGR1" s="1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="AGS1" s="1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -7278,12 +7338,66 @@
       <c r="AGE2" t="n">
         <v>527476</v>
       </c>
-      <c r="AGF2" t="inlineStr">
+      <c r="AGF2" t="n">
+        <v>526611</v>
+      </c>
+      <c r="AGG2" t="n">
+        <v>520309</v>
+      </c>
+      <c r="AGH2" t="n">
+        <v>523209</v>
+      </c>
+      <c r="AGI2" t="inlineStr">
         <is>
           <t>...</t>
         </is>
       </c>
-      <c r="AGG2" t="inlineStr">
+      <c r="AGJ2" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="AGK2" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="AGL2" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="AGM2" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="AGN2" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="AGO2" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="AGP2" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="AGQ2" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="AGR2" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="AGS2" t="inlineStr">
         <is>
           <t>...</t>
         </is>
@@ -8801,12 +8915,66 @@
       <c r="AGE3" t="n">
         <v>56323</v>
       </c>
-      <c r="AGF3" t="inlineStr">
+      <c r="AGF3" t="n">
+        <v>57544</v>
+      </c>
+      <c r="AGG3" t="n">
+        <v>41284</v>
+      </c>
+      <c r="AGH3" t="n">
+        <v>38156</v>
+      </c>
+      <c r="AGI3" t="inlineStr">
         <is>
           <t>...</t>
         </is>
       </c>
-      <c r="AGG3" t="inlineStr">
+      <c r="AGJ3" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="AGK3" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="AGL3" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="AGM3" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="AGN3" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="AGO3" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="AGP3" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="AGQ3" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="AGR3" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="AGS3" t="inlineStr">
         <is>
           <t>...</t>
         </is>
